--- a/Train/Assets/Data_Story/Story_DataTable.xlsx
+++ b/Train/Assets/Data_Story/Story_DataTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Stage_Index</t>
   </si>
@@ -110,37 +110,40 @@
     <t>사람이잖아?</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>도....도와줘....</t>
+  </si>
+  <si>
+    <t>메리골드</t>
+  </si>
+  <si>
+    <t>여기서 뭘 하는거야?</t>
+  </si>
+  <si>
+    <t>으...도와줘서 고마워, 여기 근처에 수리업무로 출장을 나왔다가 길을 잃어버려서...</t>
+  </si>
+  <si>
+    <t>너가 아니였으면 나는 분명 햇빛에 말라 비틀어졌을지도 몰라...</t>
+  </si>
+  <si>
+    <t>참, 보답을 하고 싶은데. 내가 이 기차의 정비사로 들어가도 괜찮을까?</t>
+  </si>
+  <si>
+    <t>정비사로?</t>
+  </si>
+  <si>
     <t>페요테</t>
   </si>
   <si>
-    <t>도....도와줘....</t>
-  </si>
-  <si>
-    <t>메리골드</t>
-  </si>
-  <si>
-    <t>여기서 뭘 하는거야?</t>
-  </si>
-  <si>
-    <t>으...도와줘서 고마워, 여기 근처에 수리업무로 출장을 나왔다가 길을 잃어버려서...</t>
-  </si>
-  <si>
-    <t>너가 아니였으면 나는 분명 햇빛에 말라 비틀어졌을지도 몰라...</t>
-  </si>
-  <si>
-    <t>참, 보답을 하고 싶은데. 내가 이 기차의 정비사로 들어가도 괜찮을까?</t>
-  </si>
-  <si>
-    <t>정비사로?</t>
-  </si>
-  <si>
-    <t>응, 이 기차는 너 혼자서 운행하는거지? 목적지가 어디야? 멀리있는 곳 일수록 혼자서 가긴 힘들잖아? 도와줄게.</t>
+    <t>응, 내 이름은 페요테야. 출장 정비일을 주로 하고있어. 이 기차는 너 혼자서 운행하는거지? 목적지가 어디야? 멀리있는 곳 일수록 혼자서 가긴 힘들잖아? 도와줄게.</t>
   </si>
   <si>
     <t>목적지는 23구역이긴한데...</t>
   </si>
   <si>
-    <t>그러고 보니 평소보다 괴물들의 습격이 많았던거 같긴 해. 너가 같이 간다고 하면 나야 고맙지.</t>
+    <t>그러고 보니 평소보다 괴물들의 습격이 많았던거 같긴해. 너가 같이 간다고 하면 나야 고맙지. 내 이름은 메리골드, 잘 부탁해.</t>
   </si>
   <si>
     <t>23구역?! 거긴 완전 먼 곳이잖아! 그리고...잘 사는 사람들이 사는 곳이기도 하고.</t>
@@ -159,6 +162,51 @@
   </si>
   <si>
     <t>그런 사람들은 뭘 주문했을려나...뭐가 들어있는지 알아?</t>
+  </si>
+  <si>
+    <t>아니, 몰라.</t>
+  </si>
+  <si>
+    <t>모른다고? 배달하는 물건인데도?</t>
+  </si>
+  <si>
+    <t>주문서에 '어떤 물건이 들어있는지 의문을 가지지 마라'고 적혀있었으니까.</t>
+  </si>
+  <si>
+    <t>그래서 모르는 거구나</t>
+  </si>
+  <si>
+    <t>그렇지</t>
+  </si>
+  <si>
+    <t>...참, 정비하는 법 알려줘야하는데!</t>
+  </si>
+  <si>
+    <t>메리 골드, 평소에도 습격이 이정도로 많았어?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> …아니, 평소보다 많지만 가끔씩 습격이 잦아지는 때가 있긴 해.</t>
+  </si>
+  <si>
+    <t>그 때도 지금 처럼 많았어?</t>
+  </si>
+  <si>
+    <t>그건 아니지만, 가끔 살다보면 특이한 일들이 있잖아. 그런거라고 생각해.</t>
+  </si>
+  <si>
+    <t>그…그런건가…그래도 이상하다거나 생각한 적은 없어?</t>
+  </si>
+  <si>
+    <t>딱히 없어.</t>
+  </si>
+  <si>
+    <t>이런 일들에 일일히 신경쓰면 피곤하니까.</t>
+  </si>
+  <si>
+    <t>…그렇구나.</t>
+  </si>
+  <si>
+    <t>(할 말을 잃었다…너무 무신경해…)</t>
   </si>
 </sst>
 </file>
@@ -487,6 +535,14 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -777,7 +833,7 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="7">
         <v>0.0</v>
@@ -796,7 +852,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="7">
         <v>0.0</v>
@@ -815,7 +871,7 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="7">
         <v>0.0</v>
@@ -834,10 +890,10 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C17" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>32</v>
@@ -853,7 +909,7 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" s="7">
         <v>0.0</v>
@@ -872,7 +928,7 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" s="7">
         <v>1.0</v>
@@ -891,7 +947,7 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C20" s="7">
         <v>1.0</v>
@@ -910,7 +966,7 @@
         <v>2.0</v>
       </c>
       <c r="B21" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C21" s="7">
         <v>1.0</v>
@@ -929,7 +985,7 @@
         <v>2.0</v>
       </c>
       <c r="B22" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C22" s="7">
         <v>0.0</v>
@@ -948,16 +1004,16 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" s="7">
         <v>1.0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -967,7 +1023,7 @@
         <v>2.0</v>
       </c>
       <c r="B24" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C24" s="7">
         <v>0.0</v>
@@ -976,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -986,7 +1042,7 @@
         <v>2.0</v>
       </c>
       <c r="B25" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C25" s="7">
         <v>0.0</v>
@@ -995,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1005,16 +1061,16 @@
         <v>2.0</v>
       </c>
       <c r="B26" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C26" s="7">
         <v>1.0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1024,7 +1080,7 @@
         <v>2.0</v>
       </c>
       <c r="B27" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" s="7">
         <v>0.0</v>
@@ -1033,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1043,16 +1099,16 @@
         <v>2.0</v>
       </c>
       <c r="B28" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C28" s="7">
         <v>1.0</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1062,7 +1118,7 @@
         <v>2.0</v>
       </c>
       <c r="B29" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C29" s="7">
         <v>0.0</v>
@@ -1071,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1081,7 +1137,7 @@
         <v>2.0</v>
       </c>
       <c r="B30" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C30" s="7">
         <v>0.0</v>
@@ -1090,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1100,19 +1156,342 @@
         <v>2.0</v>
       </c>
       <c r="B31" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C31" s="7">
         <v>1.0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
